--- a/docs/RPG semiturnos (versión 1).xlsx
+++ b/docs/RPG semiturnos (versión 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="38380" windowHeight="20320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="38380" windowHeight="20320" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="pasivas" sheetId="2" r:id="rId1"/>
@@ -12822,8 +12822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12913,13 +12913,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="2">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="47" t="s">
         <v>21</v>
@@ -14460,7 +14460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+    <sheetView topLeftCell="A241" workbookViewId="0">
       <selection activeCell="G258" sqref="G258"/>
     </sheetView>
   </sheetViews>
@@ -27341,7 +27341,7 @@
   <dimension ref="A1:AO133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -40887,7 +40887,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -41126,13 +41126,13 @@
       </c>
       <c r="D7" s="2">
         <f>$D$1*(0.45*E7+0.3*F7+0.35*G7+0.6325*H7*O7+0.3*K7+0.2*J7)</f>
-        <v>2703.5225</v>
+        <v>2780.1724999999997</v>
       </c>
       <c r="E7" s="2">
         <v>-20</v>
       </c>
       <c r="F7" s="2">
-        <v>-11.2</v>
+        <v>-3.9</v>
       </c>
       <c r="G7" s="2">
         <v>-60</v>
@@ -41175,13 +41175,13 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8:D54" si="0">$D$1*(0.45*E8+0.3*F8+0.35*G8+0.6325*H8*O8+0.3*K8+0.2*J8)</f>
-        <v>4053.8312499999993</v>
+        <v>4105.2812499999991</v>
       </c>
       <c r="E8" s="2">
         <v>-10</v>
       </c>
       <c r="F8" s="2">
-        <v>-7.5</v>
+        <v>-2.6</v>
       </c>
       <c r="G8" s="2">
         <v>-32</v>
@@ -41225,13 +41225,13 @@
       <c r="C9" s="56"/>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>4225.0687499999995</v>
+        <v>4288.0687499999995</v>
       </c>
       <c r="E9" s="2">
         <v>-10</v>
       </c>
       <c r="F9" s="2">
-        <v>-9.4</v>
+        <v>-3.4</v>
       </c>
       <c r="G9" s="2">
         <v>-43.5</v>
@@ -41274,13 +41274,13 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>4521.3218749999996</v>
+        <v>4547.5718749999996</v>
       </c>
       <c r="E10" s="2">
         <v>-5</v>
       </c>
       <c r="F10" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G10" s="2">
         <v>-14.5</v>
@@ -41324,13 +41324,13 @@
       <c r="C11" s="56"/>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>4376.2687500000002</v>
+        <v>4414.0687500000004</v>
       </c>
       <c r="E11" s="2">
         <v>-5</v>
       </c>
       <c r="F11" s="2">
-        <v>-5.6</v>
+        <v>-2</v>
       </c>
       <c r="G11" s="2">
         <v>-30</v>
@@ -41371,13 +41371,13 @@
       <c r="C12" s="56"/>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>4372.0031249999993</v>
+        <v>4398.2531249999993</v>
       </c>
       <c r="E12" s="2">
         <v>-5</v>
       </c>
       <c r="F12" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G12" s="2">
         <v>-12</v>
@@ -41420,13 +41420,13 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>2431.5549999999998</v>
+        <v>2457.8049999999998</v>
       </c>
       <c r="E13" s="2">
         <v>-5</v>
       </c>
       <c r="F13" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G13" s="2">
         <v>-60</v>
@@ -41467,13 +41467,13 @@
       <c r="C14" s="56"/>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>2994.2849999999999</v>
+        <v>3006.8850000000002</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="G14" s="2">
         <v>-12</v>
@@ -41514,13 +41514,13 @@
       <c r="C15" s="56"/>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>2599.66</v>
+        <v>2612.2599999999998</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="G15" s="2">
         <v>-23.2</v>
@@ -41561,13 +41561,13 @@
       <c r="C16" s="56"/>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>3281.9499999999994</v>
+        <v>3333.3999999999992</v>
       </c>
       <c r="E16" s="2">
         <v>-10</v>
       </c>
       <c r="F16" s="2">
-        <v>-7.5</v>
+        <v>-2.6</v>
       </c>
       <c r="G16" s="2">
         <v>-67</v>
@@ -41896,13 +41896,13 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>2685.4012500000003</v>
+        <v>2723.2012500000001</v>
       </c>
       <c r="E23" s="2">
         <v>-10</v>
       </c>
       <c r="F23" s="2">
-        <v>-5.6</v>
+        <v>-2</v>
       </c>
       <c r="G23" s="2">
         <v>-14.5</v>
@@ -41943,13 +41943,13 @@
       <c r="C24" s="58"/>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>2052.5924999999997</v>
+        <v>2078.8424999999997</v>
       </c>
       <c r="E24" s="2">
         <v>-5</v>
       </c>
       <c r="F24" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G24" s="2">
         <v>-6</v>
@@ -42276,13 +42276,13 @@
       <c r="C31" s="56"/>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>4191.915</v>
+        <v>4202.415</v>
       </c>
       <c r="E31" s="2">
         <v>20</v>
       </c>
       <c r="F31" s="2">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="G31" s="2">
         <v>12</v>
@@ -42323,13 +42323,13 @@
       <c r="C32" s="56"/>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>3972.8150000000005</v>
+        <v>3985.4150000000004</v>
       </c>
       <c r="E32" s="2">
         <v>-5</v>
       </c>
       <c r="F32" s="2">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="G32" s="2">
         <v>-14.5</v>
@@ -42513,13 +42513,13 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>2870.6824999999999</v>
+        <v>2883.2824999999998</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="G36" s="2">
         <v>-14.5</v>
@@ -42560,13 +42560,13 @@
       <c r="C37" s="56"/>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>1999.6024999999995</v>
+        <v>2025.8524999999993</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G37" s="2">
         <v>-43.5</v>
@@ -42609,13 +42609,13 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>50.750000000000007</v>
+        <v>58.100000000000009</v>
       </c>
       <c r="E38" s="2">
         <v>15</v>
       </c>
       <c r="F38" s="2">
-        <v>-1</v>
+        <v>-0.3</v>
       </c>
       <c r="G38" s="2">
         <v>-10</v>
@@ -42654,13 +42654,13 @@
       <c r="C39" s="56"/>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>102.54999999999998</v>
+        <v>115.14999999999998</v>
       </c>
       <c r="E39" s="2">
         <v>30</v>
       </c>
       <c r="F39" s="2">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="G39" s="2">
         <v>-20</v>
@@ -42699,13 +42699,13 @@
       <c r="C40" s="56"/>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>93.45000000000006</v>
+        <v>117.59999999999998</v>
       </c>
       <c r="E40" s="2">
         <v>45</v>
       </c>
       <c r="F40" s="2">
-        <v>-3.6</v>
+        <v>-1.3</v>
       </c>
       <c r="G40" s="2">
         <v>-30</v>
@@ -42748,13 +42748,13 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>1494.9374999999998</v>
+        <v>1523.2874999999997</v>
       </c>
       <c r="E41" s="2">
         <v>-5</v>
       </c>
       <c r="F41" s="2">
-        <v>-4.2</v>
+        <v>-1.5</v>
       </c>
       <c r="G41" s="2">
         <v>-36</v>
@@ -42795,13 +42795,13 @@
       <c r="C42" s="56"/>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>1746.5874999999996</v>
+        <v>1772.8374999999996</v>
       </c>
       <c r="E42" s="2">
         <v>-5</v>
       </c>
       <c r="F42" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G42" s="2">
         <v>-15.8</v>
@@ -42842,13 +42842,13 @@
       <c r="C43" s="56"/>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>1746.5874999999996</v>
+        <v>1772.8374999999996</v>
       </c>
       <c r="E43" s="2">
         <v>-5</v>
       </c>
       <c r="F43" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G43" s="2">
         <v>-15.8</v>
@@ -42891,13 +42891,13 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>5934.4250000000002</v>
+        <v>5960.6750000000002</v>
       </c>
       <c r="E44" s="2">
         <v>-5</v>
       </c>
       <c r="F44" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G44" s="2">
         <v>-95</v>
@@ -43083,13 +43083,13 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>10809.224999999997</v>
+        <v>10872.224999999999</v>
       </c>
       <c r="E48" s="2">
         <v>-10</v>
       </c>
       <c r="F48" s="2">
-        <v>-9.4</v>
+        <v>-3.4</v>
       </c>
       <c r="G48" s="2">
         <v>-134</v>
@@ -43130,13 +43130,13 @@
       <c r="C49" s="56"/>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>9353.0500000000011</v>
+        <v>9379.3000000000011</v>
       </c>
       <c r="E49" s="2">
         <v>-5</v>
       </c>
       <c r="F49" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G49" s="2">
         <v>-87</v>
@@ -43177,13 +43177,13 @@
       <c r="C50" s="56"/>
       <c r="D50" s="2">
         <f>$D$1*(0.45*E50+0.3*F50+0.35*G50+2.53*H50*O50+0.3*K50+0.2*J50)</f>
-        <v>10876.6875</v>
+        <v>10928.137499999999</v>
       </c>
       <c r="E50" s="2">
         <v>-10</v>
       </c>
       <c r="F50" s="2">
-        <v>-7.5</v>
+        <v>-2.6</v>
       </c>
       <c r="G50" s="2">
         <v>-150</v>
@@ -43273,13 +43273,13 @@
       <c r="C52" s="56"/>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>8177.5224999999973</v>
+        <v>8203.7724999999973</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>-3.8</v>
+        <v>-1.3</v>
       </c>
       <c r="G52" s="2">
         <v>-55.3</v>
@@ -43320,13 +43320,13 @@
       <c r="C53" s="56"/>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>5875.1699999999992</v>
+        <v>5967.57</v>
       </c>
       <c r="E53" s="2">
         <v>-10</v>
       </c>
       <c r="F53" s="2">
-        <v>-10</v>
+        <v>-1.2</v>
       </c>
       <c r="G53" s="2">
         <v>-44</v>
@@ -43443,7 +43443,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -45253,16 +45253,16 @@
       <c r="D49" s="56"/>
       <c r="E49" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8280</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>

--- a/docs/RPG semiturnos (versión 1).xlsx
+++ b/docs/RPG semiturnos (versión 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="38380" windowHeight="20320" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="38380" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="cambios de estado" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6607" uniqueCount="2864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6608" uniqueCount="2865">
   <si>
     <t>Heroes</t>
   </si>
@@ -8583,9 +8583,6 @@
     <t>(0: =, 1: &lt;, 2: &lt;=, 3: &gt;, 4: &gt;=)</t>
   </si>
   <si>
-    <t>condicionado</t>
-  </si>
-  <si>
     <t>backstabTriggered(expr)</t>
   </si>
   <si>
@@ -8908,6 +8905,12 @@
   </si>
   <si>
     <t>60+6n</t>
+  </si>
+  <si>
+    <t>por pasivas</t>
+  </si>
+  <si>
+    <t>otras condiciones</t>
   </si>
 </sst>
 </file>
@@ -11066,8 +11069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11221,7 +11224,7 @@
         <v>1482</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2119</v>
@@ -11248,7 +11251,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11285,7 +11288,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="32" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>2093</v>
@@ -11306,7 +11309,7 @@
         <v>1487</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2124</v>
@@ -11322,7 +11325,7 @@
         <v>1488</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2125</v>
@@ -11341,7 +11344,7 @@
         <v>2094</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2160</v>
@@ -11405,7 +11408,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="32" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2100</v>
@@ -11425,7 +11428,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="32" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2105</v>
@@ -11445,7 +11448,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="32" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2101</v>
@@ -11465,7 +11468,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="32" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2102</v>
@@ -11485,7 +11488,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="32" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2617</v>
@@ -11505,7 +11508,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="32" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2103</v>
@@ -11525,7 +11528,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="32" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2104</v>
@@ -11581,16 +11584,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2162</v>
@@ -11599,16 +11602,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>2162</v>
@@ -11617,13 +11620,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="32" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2160</v>
@@ -11649,7 +11652,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="32" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2108</v>
@@ -11667,7 +11670,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2107</v>
@@ -11685,16 +11688,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>2827</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>2828</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>2829</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2830</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>2162</v>
@@ -11703,7 +11706,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2109</v>
@@ -11721,7 +11724,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="32" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2167</v>
@@ -11741,7 +11744,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="32" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2096</v>
@@ -11759,7 +11762,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2039</v>
@@ -11777,7 +11780,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2110</v>
@@ -11795,7 +11798,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2111</v>
@@ -11813,7 +11816,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2040</v>
@@ -11831,7 +11834,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2041</v>
@@ -11849,7 +11852,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2042</v>
@@ -11867,7 +11870,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2043</v>
@@ -11885,7 +11888,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>2044</v>
@@ -11903,7 +11906,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>2045</v>
@@ -11921,7 +11924,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2046</v>
@@ -11939,7 +11942,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2047</v>
@@ -11957,7 +11960,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2038</v>
@@ -11975,7 +11978,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2048</v>
@@ -11993,7 +11996,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2049</v>
@@ -12011,13 +12014,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>2835</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>2836</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2837</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>2171</v>
@@ -12029,7 +12032,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>2050</v>
@@ -12047,7 +12050,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>2051</v>
@@ -12065,13 +12068,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>2772</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2773</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>2171</v>
@@ -12086,7 +12089,7 @@
         <v>2270</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2269</v>
@@ -12117,7 +12120,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2159</v>
@@ -12204,7 +12207,7 @@
         <v>-3</v>
       </c>
       <c r="D67" t="s">
-        <v>2755</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12214,6 +12217,12 @@
       <c r="B68" t="s">
         <v>2197</v>
       </c>
+      <c r="C68">
+        <v>-4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2864</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
@@ -12399,7 +12408,7 @@
         <v>2213</v>
       </c>
       <c r="D91" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -12492,10 +12501,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B103" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -12623,82 +12632,82 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B119" t="s">
         <v>2756</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B120" t="s">
         <v>2760</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B121" t="s">
         <v>2766</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2767</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B122" t="s">
         <v>2770</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2771</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B123" t="s">
         <v>2821</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B124" t="s">
         <v>2823</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B125" t="s">
         <v>2831</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2832</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B126" t="s">
         <v>2833</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B127" t="s">
         <v>2855</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2856</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B128" t="s">
         <v>2857</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2858</v>
       </c>
     </row>
   </sheetData>
@@ -12719,7 +12728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -14391,10 +14400,10 @@
         <v>2534</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14402,7 +14411,7 @@
         <v>2552</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2058</v>
@@ -14413,10 +14422,10 @@
         <v>343</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14424,7 +14433,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>121</v>
@@ -14435,7 +14444,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2227</v>
@@ -14446,7 +14455,7 @@
         <v>747</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2056</v>
@@ -14457,7 +14466,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2054</v>
@@ -14468,7 +14477,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2054</v>
@@ -14490,7 +14499,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2059</v>
@@ -14501,7 +14510,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2060</v>
@@ -14512,10 +14521,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14523,7 +14532,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>121</v>
@@ -14589,7 +14598,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2057</v>
@@ -14600,7 +14609,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2062</v>
@@ -14611,7 +14620,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2063</v>
@@ -14759,7 +14768,7 @@
         <v>1518</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2306</v>
@@ -14828,7 +14837,7 @@
         <v>130</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>1</v>
@@ -16237,11 +16246,6 @@
     <row r="150" spans="1:5" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C110:C114"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="C125:C129"/>
-    <mergeCell ref="C130:C134"/>
     <mergeCell ref="C145:C149"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="C50:C54"/>
@@ -16258,6 +16262,11 @@
     <mergeCell ref="C100:C104"/>
     <mergeCell ref="C105:C109"/>
     <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C110:C114"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C125:C129"/>
+    <mergeCell ref="C130:C134"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16273,8 +16282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N423"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B43"/>
+    <sheetView topLeftCell="A380" workbookViewId="0">
+      <selection activeCell="K410" sqref="K410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16335,7 +16344,7 @@
         <v>294</v>
       </c>
       <c r="N3" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16623,7 +16632,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>39</v>
@@ -16818,7 +16827,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>127</v>
@@ -16996,7 +17005,7 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="2" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>295</v>
@@ -24160,7 +24169,7 @@
         <v>5</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>127</v>
@@ -29105,7 +29114,7 @@
         <v>118</v>
       </c>
       <c r="F423" s="7" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="G423" s="2" t="s">
         <v>334</v>
@@ -29122,15 +29131,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B164:B183"/>
-    <mergeCell ref="B144:B163"/>
-    <mergeCell ref="B104:B123"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="B44:B63"/>
-    <mergeCell ref="B24:B43"/>
-    <mergeCell ref="B64:B83"/>
-    <mergeCell ref="B84:B103"/>
-    <mergeCell ref="B124:B143"/>
     <mergeCell ref="B384:B403"/>
     <mergeCell ref="B364:B383"/>
     <mergeCell ref="B184:B203"/>
@@ -29143,6 +29143,15 @@
     <mergeCell ref="B264:B283"/>
     <mergeCell ref="B224:B243"/>
     <mergeCell ref="B284:B303"/>
+    <mergeCell ref="B164:B183"/>
+    <mergeCell ref="B144:B163"/>
+    <mergeCell ref="B104:B123"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B44:B63"/>
+    <mergeCell ref="B24:B43"/>
+    <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B84:B103"/>
+    <mergeCell ref="B124:B143"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -29790,7 +29799,7 @@
         <v>1558</v>
       </c>
       <c r="AE9" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="AF9">
         <v>5</v>
@@ -32030,7 +32039,7 @@
         <v>1558</v>
       </c>
       <c r="AE45" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -41857,7 +41866,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="E3" t="s">
         <v>127</v>
@@ -45228,6 +45237,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B41:B54"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B19:B40"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C8:C9"/>
@@ -45235,18 +45256,6 @@
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B41:B54"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B19:B40"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -45552,7 +45561,7 @@
       </c>
       <c r="M7" s="2"/>
       <c r="P7" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="8" spans="1:16">

--- a/docs/RPG semiturnos (versión 1).xlsx
+++ b/docs/RPG semiturnos (versión 1).xlsx
@@ -6844,9 +6844,6 @@
     <t>se aplica cuando las acumulaciones de un efecto se exceden del límite, el acumulador se restaura a 0 y se aplica el efecto expr</t>
   </si>
   <si>
-    <t>el usuario gana 15+n de velocidad de ataque cada vez que mate a un enemigo (acumulable hasta 5 cargas), se pierde al morir</t>
-  </si>
-  <si>
     <t>tiempos especiales</t>
   </si>
   <si>
@@ -8911,6 +8908,9 @@
   </si>
   <si>
     <t>otras condiciones</t>
+  </si>
+  <si>
+    <t>el usuario gana 10+(3n/5) de velocidad de ataque cada vez que mate a un enemigo (acumulable hasta 5 cargas), se pierde al morir</t>
   </si>
 </sst>
 </file>
@@ -11069,8 +11069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11224,7 +11224,7 @@
         <v>1482</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2119</v>
@@ -11251,7 +11251,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11288,7 +11288,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="32" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>2093</v>
@@ -11309,7 +11309,7 @@
         <v>1487</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>2124</v>
@@ -11325,7 +11325,7 @@
         <v>1488</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>2125</v>
@@ -11344,7 +11344,7 @@
         <v>2094</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2160</v>
@@ -11408,7 +11408,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="32" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2100</v>
@@ -11428,7 +11428,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="32" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2105</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="32" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2101</v>
@@ -11468,7 +11468,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="32" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2102</v>
@@ -11488,10 +11488,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="32" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2133</v>
@@ -11508,7 +11508,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="32" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2103</v>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="32" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2104</v>
@@ -11584,16 +11584,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2162</v>
@@ -11602,16 +11602,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>2162</v>
@@ -11620,13 +11620,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="32" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2160</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="32" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2108</v>
@@ -11670,7 +11670,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2107</v>
@@ -11688,16 +11688,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>2826</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>2827</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>2828</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>2829</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>2162</v>
@@ -11706,7 +11706,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2109</v>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="32" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2167</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="32" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2096</v>
@@ -11762,13 +11762,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>2171</v>
@@ -11780,7 +11780,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2110</v>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2111</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2040</v>
@@ -11834,7 +11834,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2041</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2042</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2043</v>
@@ -11888,7 +11888,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>2044</v>
@@ -11906,7 +11906,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>2045</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2046</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2047</v>
@@ -11960,7 +11960,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2038</v>
@@ -11978,7 +11978,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2048</v>
@@ -11996,7 +11996,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2049</v>
@@ -12014,13 +12014,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>2834</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>2835</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2836</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>2171</v>
@@ -12032,7 +12032,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>2050</v>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>2051</v>
@@ -12068,13 +12068,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>2771</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2772</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>2171</v>
@@ -12086,32 +12086,32 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>2283</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>2284</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>2162</v>
@@ -12120,7 +12120,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2159</v>
@@ -12140,13 +12140,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>2298</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>2299</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>2300</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -12165,7 +12165,7 @@
         <v>1473</v>
       </c>
       <c r="C64" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12179,7 +12179,7 @@
         <v>-1</v>
       </c>
       <c r="D65" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -12193,7 +12193,7 @@
         <v>-2</v>
       </c>
       <c r="D66" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12207,7 +12207,7 @@
         <v>-3</v>
       </c>
       <c r="D67" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -12221,7 +12221,7 @@
         <v>-4</v>
       </c>
       <c r="D68" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -12354,50 +12354,50 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B85" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B86" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B87" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B88" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B89" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B90" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -12408,7 +12408,7 @@
         <v>2213</v>
       </c>
       <c r="D91" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -12501,10 +12501,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B103" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -12525,7 +12525,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B106" t="s">
         <v>2238</v>
@@ -12539,7 +12539,7 @@
         <v>2240</v>
       </c>
       <c r="C107" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -12560,10 +12560,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B110" t="s">
         <v>2272</v>
-      </c>
-      <c r="B110" t="s">
-        <v>2273</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -12592,122 +12592,122 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B114" t="s">
         <v>2286</v>
-      </c>
-      <c r="B114" t="s">
-        <v>2287</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B115" t="s">
         <v>2290</v>
-      </c>
-      <c r="B115" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B116" t="s">
         <v>2294</v>
-      </c>
-      <c r="B116" t="s">
-        <v>2295</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B117" t="s">
         <v>2296</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2297</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B118" t="s">
         <v>2301</v>
-      </c>
-      <c r="B118" t="s">
-        <v>2302</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B119" t="s">
         <v>2755</v>
-      </c>
-      <c r="B119" t="s">
-        <v>2756</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B120" t="s">
         <v>2759</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2760</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B121" t="s">
         <v>2765</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B122" t="s">
         <v>2769</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2770</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B123" t="s">
         <v>2820</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2821</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B124" t="s">
         <v>2822</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2823</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B125" t="s">
         <v>2830</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2831</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B126" t="s">
         <v>2832</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2833</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B127" t="s">
         <v>2854</v>
-      </c>
-      <c r="B127" t="s">
-        <v>2855</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B128" t="s">
         <v>2856</v>
-      </c>
-      <c r="B128" t="s">
-        <v>2857</v>
       </c>
     </row>
   </sheetData>
@@ -13055,67 +13055,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
   </sheetData>
@@ -13159,15 +13159,15 @@
         <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>2469</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="3" spans="5:9">
       <c r="E3" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -13176,15 +13176,15 @@
         <v>59</v>
       </c>
       <c r="H3" t="s">
+        <v>2487</v>
+      </c>
+      <c r="I3" t="s">
         <v>2488</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="4" spans="5:9">
       <c r="E4" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -13193,15 +13193,15 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="I4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="5" spans="5:9">
       <c r="E5" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -13212,7 +13212,7 @@
     </row>
     <row r="6" spans="5:9">
       <c r="E6" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="7" spans="5:9">
       <c r="E7" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -13245,7 +13245,7 @@
     </row>
     <row r="9" spans="5:9">
       <c r="E9" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -13267,7 +13267,7 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="F11" t="s">
         <v>58</v>
@@ -13278,7 +13278,7 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -13289,7 +13289,7 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
@@ -13300,7 +13300,7 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
@@ -13311,7 +13311,7 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
@@ -13322,7 +13322,7 @@
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
@@ -13333,7 +13333,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="E17" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="E18" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="F18" t="s">
         <v>60</v>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="E19" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
@@ -13366,7 +13366,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="E20" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="F20" t="s">
         <v>59</v>
@@ -13377,7 +13377,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="E21" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="F21" t="s">
         <v>58</v>
@@ -13399,7 +13399,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>424</v>
@@ -13408,22 +13408,22 @@
         <v>427</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>426</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>2468</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>2469</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>2470</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -13520,7 +13520,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B31" s="2">
         <v>-1</v>
@@ -13589,7 +13589,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -13750,7 +13750,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B41" s="2">
         <v>-1</v>
@@ -13823,7 +13823,7 @@
         <v>424</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -13835,13 +13835,13 @@
         <v>0.2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="I2" s="66"/>
       <c r="J2" s="66"/>
@@ -13867,13 +13867,13 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="G3" s="2">
         <v>0.02</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
@@ -13884,10 +13884,10 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="2" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -13937,7 +13937,7 @@
         <v>0.04</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="I5" s="66"/>
       <c r="J5" s="66"/>
@@ -13951,7 +13951,7 @@
         <v>426</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -13969,7 +13969,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
@@ -13980,7 +13980,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -13995,13 +13995,13 @@
         <v>0.2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="G7" s="2">
         <v>0.02</v>
       </c>
       <c r="H7" s="66" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
@@ -14015,7 +14015,7 @@
         <v>433</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>437</v>
@@ -14033,25 +14033,25 @@
         <v>24</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>2452</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>2453</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>2454</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>2455</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>2456</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>20</v>
@@ -14060,16 +14060,16 @@
         <v>27</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>438</v>
@@ -14081,7 +14081,7 @@
         <v>29</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -14208,7 +14208,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="67" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -14222,7 +14222,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D2" t="s">
         <v>1473</v>
@@ -14234,10 +14234,10 @@
         <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="I2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -14260,45 +14260,45 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="68" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B3" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="68"/>
       <c r="B4" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C4" t="s">
         <v>2493</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2494</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2495</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="68"/>
       <c r="B5" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C5" t="s">
         <v>2496</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2497</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2498</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B6" t="s">
         <v>1234</v>
@@ -14307,18 +14307,18 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -14329,23 +14329,23 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B11" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B12" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
   </sheetData>
@@ -14366,8 +14366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14397,24 +14397,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14422,10 +14422,10 @@
         <v>343</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14433,7 +14433,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>121</v>
@@ -14444,7 +14444,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2227</v>
@@ -14455,7 +14455,7 @@
         <v>747</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2056</v>
@@ -14466,7 +14466,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2054</v>
@@ -14477,7 +14477,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2054</v>
@@ -14499,7 +14499,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2059</v>
@@ -14510,7 +14510,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2060</v>
@@ -14521,10 +14521,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14532,7 +14532,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>121</v>
@@ -14576,7 +14576,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2058</v>
@@ -14587,7 +14587,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2055</v>
@@ -14598,7 +14598,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>2057</v>
@@ -14609,7 +14609,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2062</v>
@@ -14620,7 +14620,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>2063</v>
@@ -14647,7 +14647,7 @@
         <v>84</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>91</v>
@@ -14658,7 +14658,7 @@
         <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>522</v>
@@ -14669,7 +14669,7 @@
         <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>523</v>
@@ -14683,12 +14683,12 @@
         <v>1583</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>93</v>
@@ -14713,7 +14713,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>520</v>
@@ -14732,13 +14732,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>733</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -14768,21 +14768,21 @@
         <v>1518</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>2303</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>2304</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -14793,7 +14793,7 @@
         <v>1580</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -14837,7 +14837,7 @@
         <v>130</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>1</v>
@@ -14891,7 +14891,7 @@
         <v>235</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="2">
@@ -15038,7 +15038,7 @@
         <v>1230</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C60" s="57" t="s">
         <v>4</v>
@@ -15053,7 +15053,7 @@
         <v>1231</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C61" s="57"/>
       <c r="D61" s="2">
@@ -15079,7 +15079,7 @@
         <v>1235</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="C63" s="57"/>
       <c r="D63" s="2">
@@ -15092,7 +15092,7 @@
         <v>1234</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2258</v>
+        <v>2864</v>
       </c>
       <c r="C64" s="57"/>
       <c r="D64" s="2">
@@ -15105,7 +15105,7 @@
         <v>1329</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C65" s="57" t="s">
         <v>5</v>
@@ -15120,7 +15120,7 @@
         <v>1325</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C66" s="57"/>
       <c r="D66" s="2">
@@ -15159,7 +15159,7 @@
         <v>361</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="C69" s="57"/>
       <c r="D69" s="2">
@@ -15213,7 +15213,7 @@
         <v>887</v>
       </c>
       <c r="B73" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C73" s="57"/>
       <c r="D73" s="2">
@@ -15226,7 +15226,7 @@
         <v>1302</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C74" s="57"/>
       <c r="D74" s="2">
@@ -15254,7 +15254,7 @@
         <v>513</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="C76" s="57"/>
       <c r="D76" s="2">
@@ -15375,7 +15375,7 @@
         <v>1189</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C85" s="57" t="s">
         <v>9</v>
@@ -15403,7 +15403,7 @@
         <v>1192</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="C87" s="57"/>
       <c r="D87" s="2">
@@ -15429,7 +15429,7 @@
         <v>1431</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="C89" s="57"/>
       <c r="D89" s="2">
@@ -15442,7 +15442,7 @@
         <v>883</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C90" s="57" t="s">
         <v>38</v>
@@ -15454,10 +15454,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="23" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>2663</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>2664</v>
       </c>
       <c r="C91" s="57"/>
       <c r="D91" s="2">
@@ -15470,7 +15470,7 @@
         <v>882</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C92" s="57"/>
       <c r="D92" s="2">
@@ -15483,7 +15483,7 @@
         <v>884</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C93" s="57"/>
       <c r="D93" s="2">
@@ -15496,7 +15496,7 @@
         <v>1042</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C94" s="57"/>
       <c r="D94" s="2">
@@ -15509,7 +15509,7 @@
         <v>1338</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="C95" s="57" t="s">
         <v>10</v>
@@ -15537,7 +15537,7 @@
         <v>1131</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="C97" s="57"/>
       <c r="D97" s="2">
@@ -15617,7 +15617,7 @@
         <v>812</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C103" s="57"/>
       <c r="D103" s="2">
@@ -15630,7 +15630,7 @@
         <v>813</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C104" s="57"/>
       <c r="D104" s="2">
@@ -15643,7 +15643,7 @@
         <v>1130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C105" s="57" t="s">
         <v>33</v>
@@ -15707,7 +15707,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="36" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>1466</v>
@@ -15725,7 +15725,7 @@
         <v>514</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C111" s="57"/>
       <c r="D111" s="2">
@@ -15751,7 +15751,7 @@
         <v>1346</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="2">
@@ -15764,7 +15764,7 @@
         <v>808</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="C114" s="57"/>
       <c r="D114" s="2">
@@ -15777,7 +15777,7 @@
         <v>935</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="C115" s="57" t="s">
         <v>13</v>
@@ -15792,7 +15792,7 @@
         <v>936</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="C116" s="57"/>
       <c r="D116" s="2">
@@ -15805,7 +15805,7 @@
         <v>937</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C117" s="57"/>
       <c r="D117" s="2">
@@ -15818,7 +15818,7 @@
         <v>938</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C118" s="57"/>
       <c r="D118" s="2">
@@ -15859,7 +15859,7 @@
         <v>509</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C121" s="57"/>
       <c r="D121" s="2">
@@ -15872,7 +15872,7 @@
         <v>510</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="C122" s="57"/>
       <c r="D122" s="2">
@@ -15911,7 +15911,7 @@
         <v>811</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="C125" s="57" t="s">
         <v>15</v>
@@ -15926,7 +15926,7 @@
         <v>817</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C126" s="57"/>
       <c r="D126" s="2">
@@ -15978,7 +15978,7 @@
         <v>405</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C130" s="57" t="s">
         <v>747</v>
@@ -15993,7 +15993,7 @@
         <v>814</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="C131" s="57"/>
       <c r="D131" s="2">
@@ -16088,7 +16088,7 @@
         <v>1268</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="C138" s="57"/>
       <c r="D138" s="2">
@@ -16101,7 +16101,7 @@
         <v>1165</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="C139" s="57"/>
       <c r="D139" s="2">
@@ -16155,7 +16155,7 @@
         <v>1341</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="C143" s="57"/>
       <c r="D143" s="2">
@@ -16196,7 +16196,7 @@
         <v>342</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C146" s="57"/>
       <c r="D146" s="2">
@@ -16222,7 +16222,7 @@
         <v>1347</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C148" s="57"/>
       <c r="D148" s="2">
@@ -16344,7 +16344,7 @@
         <v>294</v>
       </c>
       <c r="N3" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>308</v>
@@ -16513,7 +16513,7 @@
         <v>205</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>295</v>
@@ -16581,7 +16581,7 @@
         <v>187</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>295</v>
@@ -16613,7 +16613,7 @@
         <v>187</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>295</v>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>39</v>
@@ -16675,7 +16675,7 @@
         <v>187</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>295</v>
@@ -16711,7 +16711,7 @@
         <v>120</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>295</v>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>295</v>
@@ -16775,7 +16775,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>295</v>
@@ -16805,7 +16805,7 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>308</v>
@@ -16827,7 +16827,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>127</v>
@@ -17005,7 +17005,7 @@
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="2" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>295</v>
@@ -17037,7 +17037,7 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>308</v>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>295</v>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>308</v>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>295</v>
@@ -17199,7 +17199,7 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>295</v>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>308</v>
@@ -17263,7 +17263,7 @@
         <v>263</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>295</v>
@@ -17325,7 +17325,7 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>295</v>
@@ -17357,7 +17357,7 @@
         <v>187</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>295</v>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>295</v>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>295</v>
@@ -17483,7 +17483,7 @@
         <v>187</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>295</v>
@@ -17515,7 +17515,7 @@
         <v>187</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>295</v>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>295</v>
@@ -17655,7 +17655,7 @@
         <v>120</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>295</v>
@@ -17693,7 +17693,7 @@
         <v>120</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>295</v>
@@ -17817,7 +17817,7 @@
         <v>187</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>295</v>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>295</v>
@@ -17911,7 +17911,7 @@
         <v>120</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>295</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>295</v>
@@ -18071,7 +18071,7 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>295</v>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>295</v>
@@ -18169,7 +18169,7 @@
         <v>120</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>295</v>
@@ -18201,7 +18201,7 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>295</v>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>295</v>
@@ -18301,7 +18301,7 @@
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>295</v>
@@ -18955,7 +18955,7 @@
         <v>409</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="L84" s="2"/>
     </row>
@@ -19047,7 +19047,7 @@
         <v>409</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="L87" s="2"/>
     </row>
@@ -19103,7 +19103,7 @@
         <v>115</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="L89" s="2"/>
     </row>
@@ -19135,13 +19135,13 @@
         <v>148</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="19" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B91" s="59"/>
       <c r="C91" s="3">
@@ -19267,7 +19267,7 @@
         <v>180</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="L94" s="2"/>
     </row>
@@ -19301,7 +19301,7 @@
         <v>409</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="L95" s="2"/>
     </row>
@@ -19365,7 +19365,7 @@
         <v>180</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="L97" s="2"/>
     </row>
@@ -19424,7 +19424,7 @@
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="L99" s="2"/>
     </row>
@@ -19456,7 +19456,7 @@
         <v>409</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="L100" s="2"/>
     </row>
@@ -19487,7 +19487,7 @@
         <v>409</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="L101" s="2"/>
     </row>
@@ -19515,7 +19515,7 @@
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="L102" s="2"/>
     </row>
@@ -19579,7 +19579,7 @@
         <v>175</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="L104" s="2"/>
     </row>
@@ -19637,7 +19637,7 @@
         <v>175</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="L106" s="2"/>
     </row>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="L109" s="2"/>
     </row>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="L111" s="2"/>
     </row>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="L113" s="2"/>
     </row>
@@ -19911,7 +19911,7 @@
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="L115" s="2"/>
     </row>
@@ -19945,7 +19945,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="43" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B117" s="57"/>
       <c r="C117" s="7">
@@ -19969,7 +19969,7 @@
       </c>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="L117" s="2"/>
     </row>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="J124" s="2"/>
       <c r="K124" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="L124" s="2"/>
     </row>
@@ -20239,7 +20239,7 @@
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="L126" s="2"/>
     </row>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="J127" s="2"/>
       <c r="K127" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="L127" s="2"/>
     </row>
@@ -20415,7 +20415,7 @@
       </c>
       <c r="J132" s="2"/>
       <c r="K132" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="L132" s="2"/>
     </row>
@@ -20443,7 +20443,7 @@
       </c>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="L133" s="2"/>
     </row>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="37" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B137" s="57"/>
       <c r="C137" s="7">
@@ -20563,7 +20563,7 @@
       </c>
       <c r="J137" s="2"/>
       <c r="K137" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="L137" s="2"/>
     </row>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="L139" s="2"/>
     </row>
@@ -20735,7 +20735,7 @@
       </c>
       <c r="J143" s="2"/>
       <c r="K143" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="L143" s="2"/>
     </row>
@@ -20799,7 +20799,7 @@
         <v>177</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="L145" s="2"/>
     </row>
@@ -20889,7 +20889,7 @@
       </c>
       <c r="J148" s="2"/>
       <c r="K148" s="2" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="L148" s="2"/>
     </row>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>221</v>
@@ -20951,7 +20951,7 @@
         <v>177</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="L150" s="2"/>
     </row>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="J154" s="2"/>
       <c r="K154" s="2" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="L154" s="2"/>
     </row>
@@ -21103,7 +21103,7 @@
       </c>
       <c r="J155" s="2"/>
       <c r="K155" s="2" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="L155" s="2"/>
     </row>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="J156" s="2"/>
       <c r="K156" s="2" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="L156" s="2"/>
     </row>
@@ -21197,7 +21197,7 @@
       </c>
       <c r="J158" s="2"/>
       <c r="K158" s="2" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="L158" s="2"/>
     </row>
@@ -21285,7 +21285,7 @@
       </c>
       <c r="J161" s="2"/>
       <c r="K161" s="2" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="L161" s="2"/>
     </row>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="2" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="L162" s="2"/>
     </row>
@@ -21377,7 +21377,7 @@
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="L164" s="2"/>
     </row>
@@ -21561,7 +21561,7 @@
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="L170" s="2"/>
     </row>
@@ -21679,7 +21679,7 @@
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="L174" s="2"/>
     </row>
@@ -21807,7 +21807,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="24" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B179" s="57"/>
       <c r="C179" s="7">
@@ -21831,7 +21831,7 @@
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="2" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="L179" s="2"/>
     </row>
@@ -21951,7 +21951,7 @@
       </c>
       <c r="J183" s="2"/>
       <c r="K183" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="L183" s="2"/>
     </row>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="J184" s="2"/>
       <c r="K184" s="2" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="L184" s="2"/>
     </row>
@@ -22101,7 +22101,7 @@
       </c>
       <c r="J188" s="2"/>
       <c r="K188" s="2" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="L188" s="2"/>
     </row>
@@ -22178,7 +22178,7 @@
         <v>118</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>416</v>
@@ -22307,7 +22307,7 @@
       </c>
       <c r="J195" s="2"/>
       <c r="K195" s="2" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="L195" s="2"/>
     </row>
@@ -22425,7 +22425,7 @@
       </c>
       <c r="J199" s="2"/>
       <c r="K199" s="2" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="L199" s="2"/>
     </row>
@@ -22485,7 +22485,7 @@
       </c>
       <c r="J201" s="2"/>
       <c r="K201" s="2" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="L201" s="2"/>
     </row>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="J204" s="2"/>
       <c r="K204" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="L204" s="2"/>
     </row>
@@ -22607,7 +22607,7 @@
       </c>
       <c r="J205" s="2"/>
       <c r="K205" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="L205" s="2"/>
     </row>
@@ -22635,7 +22635,7 @@
       </c>
       <c r="J206" s="2"/>
       <c r="K206" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="L206" s="2"/>
     </row>
@@ -22665,7 +22665,7 @@
       </c>
       <c r="J207" s="2"/>
       <c r="K207" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="L207" s="2"/>
     </row>
@@ -23051,7 +23051,7 @@
       </c>
       <c r="J220" s="2"/>
       <c r="K220" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="L220" s="2"/>
     </row>
@@ -23085,7 +23085,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="41" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B222" s="57"/>
       <c r="C222" s="2">
@@ -23107,7 +23107,7 @@
       </c>
       <c r="J222" s="2"/>
       <c r="K222" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="L222" s="2"/>
     </row>
@@ -23143,10 +23143,10 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="29" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B224" s="58" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C224" s="7">
         <v>1</v>
@@ -23203,7 +23203,7 @@
       </c>
       <c r="J225" s="2"/>
       <c r="K225" s="2" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="L225" s="2"/>
     </row>
@@ -23267,7 +23267,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="29" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B228" s="59"/>
       <c r="C228" s="7">
@@ -23293,7 +23293,7 @@
       </c>
       <c r="J228" s="2"/>
       <c r="K228" s="2" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="L228" s="2"/>
     </row>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="J229" s="2"/>
       <c r="K229" s="2" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="L229" s="2"/>
     </row>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="7" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="G230" s="7" t="s">
         <v>67</v>
@@ -23349,7 +23349,7 @@
       </c>
       <c r="J230" s="2"/>
       <c r="K230" s="2" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="L230" s="2"/>
     </row>
@@ -23426,7 +23426,7 @@
         <v>118</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="G233" s="7" t="s">
         <v>315</v>
@@ -23437,7 +23437,7 @@
       </c>
       <c r="J233" s="2"/>
       <c r="K233" s="2" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="L233" s="2"/>
     </row>
@@ -23471,7 +23471,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="29" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B235" s="59"/>
       <c r="C235" s="7">
@@ -23495,7 +23495,7 @@
       </c>
       <c r="J235" s="2"/>
       <c r="K235" s="2" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="L235" s="2"/>
     </row>
@@ -23553,7 +23553,7 @@
       </c>
       <c r="J237" s="2"/>
       <c r="K237" s="2" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="L237" s="2"/>
     </row>
@@ -23671,13 +23671,13 @@
       </c>
       <c r="J241" s="2"/>
       <c r="K241" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="L241" s="2"/>
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="29" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B242" s="59"/>
       <c r="C242" s="7">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="J242" s="2"/>
       <c r="K242" s="2" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="L242" s="2"/>
     </row>
@@ -23729,7 +23729,7 @@
       </c>
       <c r="J243" s="2"/>
       <c r="K243" s="2" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="L243" s="2"/>
     </row>
@@ -23907,7 +23907,7 @@
       </c>
       <c r="J249" s="2"/>
       <c r="K249" s="2" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="L249" s="2"/>
     </row>
@@ -23935,7 +23935,7 @@
       </c>
       <c r="J250" s="2"/>
       <c r="K250" s="2" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="L250" s="2"/>
     </row>
@@ -23971,7 +23971,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="31" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B252" s="59"/>
       <c r="C252" s="2">
@@ -23995,7 +23995,7 @@
         <v>409</v>
       </c>
       <c r="K252" s="2" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="L252" s="2"/>
     </row>
@@ -24149,7 +24149,7 @@
         <v>411</v>
       </c>
       <c r="K257" s="2" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="L257" s="2"/>
     </row>
@@ -24169,7 +24169,7 @@
         <v>5</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>127</v>
@@ -24181,7 +24181,7 @@
         <v>409</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="L258" s="2"/>
     </row>
@@ -24341,7 +24341,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="36" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B264" s="58" t="s">
         <v>12</v>
@@ -24367,7 +24367,7 @@
         <v>144</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="L264" s="2"/>
     </row>
@@ -24427,7 +24427,7 @@
         <v>144</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="L266" s="2"/>
     </row>
@@ -24455,7 +24455,7 @@
       </c>
       <c r="J267" s="2"/>
       <c r="K267" s="2" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="L267" s="2"/>
     </row>
@@ -24543,7 +24543,7 @@
       </c>
       <c r="J270" s="2"/>
       <c r="K270" s="2" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="L270" s="2"/>
     </row>
@@ -24573,7 +24573,7 @@
         <v>144</v>
       </c>
       <c r="K271" s="2" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="L271" s="2"/>
     </row>
@@ -24609,7 +24609,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="36" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B273" s="59"/>
       <c r="C273" s="2">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="J273" s="2"/>
       <c r="K273" s="2" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="L273" s="2"/>
     </row>
@@ -24661,7 +24661,7 @@
       </c>
       <c r="J274" s="2"/>
       <c r="K274" s="2" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="L274" s="2"/>
     </row>
@@ -24719,7 +24719,7 @@
       </c>
       <c r="J276" s="2"/>
       <c r="K276" s="2" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="L276" s="2"/>
     </row>
@@ -24751,7 +24751,7 @@
       </c>
       <c r="J277" s="2"/>
       <c r="K277" s="2" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="L277" s="2"/>
     </row>
@@ -24811,7 +24811,7 @@
       </c>
       <c r="J279" s="2"/>
       <c r="K279" s="2" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="L279" s="2"/>
     </row>
@@ -24927,7 +24927,7 @@
       </c>
       <c r="J283" s="2"/>
       <c r="K283" s="2" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="L283" s="2"/>
     </row>
@@ -24936,7 +24936,7 @@
         <v>213</v>
       </c>
       <c r="B284" s="58" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="C284" s="2">
         <v>1</v>
@@ -24959,7 +24959,7 @@
         <v>120</v>
       </c>
       <c r="K284" s="2" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="L284" s="2"/>
     </row>
@@ -24989,7 +24989,7 @@
         <v>263</v>
       </c>
       <c r="K285" s="2" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="L285" s="2"/>
     </row>
@@ -25085,7 +25085,7 @@
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="L288" s="2"/>
     </row>
@@ -25149,7 +25149,7 @@
     </row>
     <row r="291" spans="1:12">
       <c r="A291" s="40" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B291" s="59"/>
       <c r="C291" s="2">
@@ -25175,7 +25175,7 @@
         <v>133</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="L291" s="2"/>
     </row>
@@ -25295,7 +25295,7 @@
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="L295" s="2"/>
     </row>
@@ -25325,7 +25325,7 @@
       </c>
       <c r="J296" s="2"/>
       <c r="K296" s="2" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="L296" s="2"/>
     </row>
@@ -25443,7 +25443,7 @@
         <v>120</v>
       </c>
       <c r="K300" s="2" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="L300" s="2"/>
     </row>
@@ -25477,7 +25477,7 @@
     </row>
     <row r="302" spans="1:12">
       <c r="A302" s="40" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B302" s="59"/>
       <c r="C302" s="2">
@@ -25501,7 +25501,7 @@
         <v>263</v>
       </c>
       <c r="K302" s="2" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="L302" s="2"/>
     </row>
@@ -25595,7 +25595,7 @@
       </c>
       <c r="J305" s="2"/>
       <c r="K305" s="2" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="L305" s="2"/>
     </row>
@@ -25625,13 +25625,13 @@
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="2" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="L306" s="2"/>
     </row>
     <row r="307" spans="1:12">
       <c r="A307" s="42" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B307" s="59"/>
       <c r="C307" s="2">
@@ -25717,7 +25717,7 @@
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="2" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="L309" s="2"/>
     </row>
@@ -25865,7 +25865,7 @@
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="2" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="L314" s="2"/>
     </row>
@@ -25895,7 +25895,7 @@
       </c>
       <c r="J315" s="2"/>
       <c r="K315" s="2" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="L315" s="2"/>
     </row>
@@ -25981,7 +25981,7 @@
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="2" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="L318" s="2"/>
     </row>
@@ -26009,7 +26009,7 @@
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="20" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="L319" s="2"/>
     </row>
@@ -26037,7 +26037,7 @@
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="2" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="L320" s="2"/>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="J321" s="2"/>
       <c r="K321" s="2" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="L321" s="2"/>
     </row>
@@ -26095,7 +26095,7 @@
       </c>
       <c r="J322" s="2"/>
       <c r="K322" s="2" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="L322" s="2"/>
     </row>
@@ -26123,7 +26123,7 @@
       </c>
       <c r="J323" s="2"/>
       <c r="K323" s="2" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="L323" s="2" t="s">
         <v>308</v>
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J327" s="2"/>
       <c r="K327" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="L327" s="2"/>
     </row>
@@ -26283,7 +26283,7 @@
     </row>
     <row r="329" spans="1:12">
       <c r="A329" s="15" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B329" s="59"/>
       <c r="C329" s="2">
@@ -26309,7 +26309,7 @@
         <v>149</v>
       </c>
       <c r="K329" s="2" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="L329" s="2"/>
     </row>
@@ -26337,7 +26337,7 @@
       </c>
       <c r="J330" s="2"/>
       <c r="K330" s="2" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="L330" s="2"/>
     </row>
@@ -26365,7 +26365,7 @@
       </c>
       <c r="J331" s="2"/>
       <c r="K331" s="2" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="L331" s="2"/>
     </row>
@@ -26393,7 +26393,7 @@
       </c>
       <c r="J332" s="2"/>
       <c r="K332" s="2" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="L332" s="2"/>
     </row>
@@ -26523,7 +26523,7 @@
         <v>409</v>
       </c>
       <c r="K336" s="2" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="L336" s="2"/>
     </row>
@@ -26555,7 +26555,7 @@
         <v>409</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="L337" s="2"/>
     </row>
@@ -26621,7 +26621,7 @@
         <v>149</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="L339" s="2"/>
     </row>
@@ -26679,7 +26679,7 @@
       </c>
       <c r="J341" s="2"/>
       <c r="K341" s="2" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="L341" s="2"/>
     </row>
@@ -26803,7 +26803,7 @@
     </row>
     <row r="346" spans="1:12">
       <c r="A346" s="53" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B346" s="59"/>
       <c r="C346" s="2">
@@ -26825,7 +26825,7 @@
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="L346" s="2"/>
     </row>
@@ -26857,7 +26857,7 @@
         <v>120</v>
       </c>
       <c r="K347" s="20" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="L347" s="2"/>
     </row>
@@ -26913,7 +26913,7 @@
       </c>
       <c r="J349" s="2"/>
       <c r="K349" s="2" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="L349" s="2"/>
     </row>
@@ -26943,7 +26943,7 @@
         <v>411</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="L350" s="2"/>
     </row>
@@ -27001,7 +27001,7 @@
       </c>
       <c r="J352" s="2"/>
       <c r="K352" s="2" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="L352" s="2"/>
     </row>
@@ -27093,7 +27093,7 @@
       </c>
       <c r="J355" s="2"/>
       <c r="K355" s="2" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="L355" s="2"/>
     </row>
@@ -27185,7 +27185,7 @@
         <v>186</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="L358" s="2"/>
     </row>
@@ -27213,7 +27213,7 @@
       </c>
       <c r="J359" s="2"/>
       <c r="K359" s="2" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="L359" s="2"/>
     </row>
@@ -27277,7 +27277,7 @@
       </c>
       <c r="J361" s="2"/>
       <c r="K361" s="2" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="L361" s="2"/>
     </row>
@@ -27311,7 +27311,7 @@
     </row>
     <row r="363" spans="1:12">
       <c r="A363" s="53" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B363" s="60"/>
       <c r="C363" s="2">
@@ -27339,7 +27339,7 @@
         <v>411</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="L363" s="2"/>
     </row>
@@ -27599,7 +27599,7 @@
       </c>
       <c r="J372" s="2"/>
       <c r="K372" s="2" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="L372" s="2"/>
     </row>
@@ -27655,7 +27655,7 @@
       </c>
       <c r="J374" s="2"/>
       <c r="K374" s="2" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="L374" s="2"/>
     </row>
@@ -27685,7 +27685,7 @@
       </c>
       <c r="J375" s="2"/>
       <c r="K375" s="2" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="L375" s="2"/>
     </row>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="J376" s="2"/>
       <c r="K376" s="2" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="L376" s="2"/>
     </row>
@@ -27807,7 +27807,7 @@
       </c>
       <c r="J379" s="2"/>
       <c r="K379" s="2" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="L379" s="2"/>
     </row>
@@ -27837,7 +27837,7 @@
       </c>
       <c r="J380" s="2"/>
       <c r="K380" s="2" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="L380" s="2"/>
     </row>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="J383" s="6"/>
       <c r="K383" s="2" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="L383" s="2"/>
     </row>
@@ -27961,7 +27961,7 @@
       </c>
       <c r="J384" s="2"/>
       <c r="K384" s="2" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="L384" s="2"/>
     </row>
@@ -28019,7 +28019,7 @@
       </c>
       <c r="J386" s="2"/>
       <c r="K386" s="2" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="L386" s="2"/>
     </row>
@@ -28049,7 +28049,7 @@
       </c>
       <c r="J387" s="2"/>
       <c r="K387" s="2" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="L387" s="2"/>
     </row>
@@ -28085,7 +28085,7 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="32" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B389" s="59"/>
       <c r="C389" s="2">
@@ -28109,7 +28109,7 @@
       </c>
       <c r="J389" s="2"/>
       <c r="K389" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="L389" s="2"/>
     </row>
@@ -28167,7 +28167,7 @@
       </c>
       <c r="J391" s="2"/>
       <c r="K391" s="2" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="L391" s="2"/>
     </row>
@@ -28199,13 +28199,13 @@
       </c>
       <c r="J392" s="2"/>
       <c r="K392" s="2" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="L392" s="2"/>
     </row>
     <row r="393" spans="1:12">
       <c r="A393" s="32" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B393" s="59"/>
       <c r="C393" s="2">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="J400" s="2"/>
       <c r="K400" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="L400" s="2"/>
     </row>
@@ -28573,7 +28573,7 @@
       </c>
       <c r="J405" s="2"/>
       <c r="K405" s="2" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="L405" s="2"/>
     </row>
@@ -28633,7 +28633,7 @@
       </c>
       <c r="J407" s="2"/>
       <c r="K407" s="2" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="L407" s="2"/>
     </row>
@@ -28723,7 +28723,7 @@
         <v>1164</v>
       </c>
       <c r="K410" s="2" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="L410" s="2"/>
     </row>
@@ -28815,7 +28815,7 @@
       </c>
       <c r="J413" s="2"/>
       <c r="K413" s="2" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="L413" s="2"/>
     </row>
@@ -28877,7 +28877,7 @@
         <v>1164</v>
       </c>
       <c r="K415" s="2" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="L415" s="2"/>
     </row>
@@ -28973,7 +28973,7 @@
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="2" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="L418" s="2"/>
     </row>
@@ -29001,7 +29001,7 @@
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="2" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="L419" s="2"/>
     </row>
@@ -29033,7 +29033,7 @@
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="2" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="L420" s="2"/>
     </row>
@@ -29114,7 +29114,7 @@
         <v>118</v>
       </c>
       <c r="F423" s="7" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="G423" s="2" t="s">
         <v>334</v>
@@ -29125,7 +29125,7 @@
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="2" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="L423" s="2"/>
     </row>
@@ -29619,7 +29619,7 @@
         <v>54</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>707</v>
@@ -29682,7 +29682,7 @@
         <v>54</v>
       </c>
       <c r="AG8" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="AH8" t="s">
         <v>57</v>
@@ -29706,7 +29706,7 @@
         <v>55</v>
       </c>
       <c r="AO8" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -29739,7 +29739,7 @@
         <v>158</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>726</v>
@@ -29799,7 +29799,7 @@
         <v>1558</v>
       </c>
       <c r="AE9" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="AF9">
         <v>5</v>
@@ -29863,10 +29863,10 @@
         <v>735</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="M10" s="10">
         <v>22.8</v>
@@ -29875,7 +29875,7 @@
         <v>114</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="P10" s="10">
         <v>30</v>
@@ -29973,7 +29973,7 @@
         <v>93</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="S11" s="10">
         <v>17.600000000000001</v>
@@ -29982,7 +29982,7 @@
         <v>80</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="V11" s="10">
         <v>21.8</v>
@@ -29991,7 +29991,7 @@
         <v>65</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="Y11" s="10">
         <v>21.4</v>
@@ -30000,7 +30000,7 @@
         <v>79</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="AB11" s="10">
         <v>22.2</v>
@@ -30042,10 +30042,10 @@
         <v>590</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="M12" s="10">
         <v>23.6</v>
@@ -30054,7 +30054,7 @@
         <v>86</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="P12" s="10">
         <v>28.2</v>
@@ -30072,7 +30072,7 @@
         <v>59</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="V12" s="10">
         <v>23.6</v>
@@ -30180,7 +30180,7 @@
         <v>167</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -30230,7 +30230,7 @@
         <v>56</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>1560</v>
@@ -30290,7 +30290,7 @@
         <v>57</v>
       </c>
       <c r="AD15" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -30320,10 +30320,10 @@
         <v>54</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -30377,7 +30377,7 @@
         <v>166</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -30428,7 +30428,7 @@
         <v>171</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -30544,7 +30544,7 @@
         <v>604</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>282</v>
@@ -30566,7 +30566,7 @@
         <v>58</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>530</v>
@@ -30595,7 +30595,7 @@
         <v>605</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>325</v>
@@ -30743,7 +30743,7 @@
       <c r="AB23" s="12"/>
       <c r="AC23" s="12"/>
       <c r="AD23" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -30984,7 +30984,7 @@
         <v>38</v>
       </c>
       <c r="AD27" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -31117,10 +31117,10 @@
         <v>181</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="M30" s="28">
         <v>24.4</v>
@@ -31129,7 +31129,7 @@
         <v>82</v>
       </c>
       <c r="O30" s="28" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="P30" s="28">
         <v>21.4</v>
@@ -31138,7 +31138,7 @@
         <v>79</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="S30" s="28">
         <v>25</v>
@@ -31165,7 +31165,7 @@
         <v>105</v>
       </c>
       <c r="AA30" s="28" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="AB30" s="28">
         <v>18.399999999999999</v>
@@ -31182,7 +31182,7 @@
         <v>951</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>1316</v>
@@ -31204,7 +31204,7 @@
         <v>60</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
@@ -31234,7 +31234,7 @@
         <v>443</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>1320</v>
@@ -31253,7 +31253,7 @@
         <v>58</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
@@ -31519,7 +31519,7 @@
         <v>957</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>1298</v>
@@ -31574,7 +31574,7 @@
         <v>1299</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>1381</v>
@@ -31629,7 +31629,7 @@
         <v>1287</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>1382</v>
@@ -31960,7 +31960,7 @@
         <v>1241</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>1252</v>
@@ -31979,10 +31979,10 @@
         <v>168</v>
       </c>
       <c r="K45" s="31" t="s">
+        <v>2733</v>
+      </c>
+      <c r="L45" s="31" t="s">
         <v>2734</v>
-      </c>
-      <c r="L45" s="31" t="s">
-        <v>2735</v>
       </c>
       <c r="M45" s="30">
         <v>22.2</v>
@@ -32000,7 +32000,7 @@
         <v>75</v>
       </c>
       <c r="R45" s="31" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="S45" s="30">
         <v>22.6</v>
@@ -32018,7 +32018,7 @@
         <v>67</v>
       </c>
       <c r="X45" s="31" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="Y45" s="30">
         <v>26.6</v>
@@ -32027,7 +32027,7 @@
         <v>89</v>
       </c>
       <c r="AA45" s="31" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="AB45" s="30">
         <v>19.2</v>
@@ -32039,7 +32039,7 @@
         <v>1558</v>
       </c>
       <c r="AE45" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -32072,7 +32072,7 @@
         <v>181</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="L46" s="31" t="s">
         <v>1563</v>
@@ -32084,7 +32084,7 @@
         <v>73</v>
       </c>
       <c r="O46" s="31" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="P46" s="30">
         <v>17.2</v>
@@ -32093,7 +32093,7 @@
         <v>70</v>
       </c>
       <c r="R46" s="31" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="S46" s="30">
         <v>26.2</v>
@@ -32102,7 +32102,7 @@
         <v>127</v>
       </c>
       <c r="U46" s="31" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="V46" s="30">
         <v>21</v>
@@ -32111,7 +32111,7 @@
         <v>69</v>
       </c>
       <c r="X46" s="31" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="Y46" s="30">
         <v>24.4</v>
@@ -32120,7 +32120,7 @@
         <v>106</v>
       </c>
       <c r="AA46" s="31" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="AB46" s="30">
         <v>17.600000000000001</v>
@@ -32129,7 +32129,7 @@
         <v>56</v>
       </c>
       <c r="AD46" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -32237,7 +32237,7 @@
         <v>609</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>549</v>
@@ -32390,7 +32390,7 @@
         <v>612</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>560</v>
@@ -32492,7 +32492,7 @@
         <v>650</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G53" s="17" t="s">
         <v>649</v>
@@ -32504,7 +32504,7 @@
         <v>60</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="K53" s="17" t="s">
         <v>645</v>
@@ -32645,7 +32645,7 @@
         <v>1432</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="G56" s="32"/>
       <c r="H56" s="32" t="s">
@@ -32758,7 +32758,7 @@
         <v>163</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="L58" s="32" t="s">
         <v>1575</v>
@@ -32829,7 +32829,7 @@
         <v>1174</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="E59" s="32" t="s">
         <v>1429</v>
@@ -32921,7 +32921,7 @@
         <v>975</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>844</v>
@@ -33028,7 +33028,7 @@
         <v>877</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>851</v>
@@ -33093,7 +33093,7 @@
         <v>1047</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="L64" s="23" t="s">
         <v>1502</v>
@@ -33150,7 +33150,7 @@
         <v>111</v>
       </c>
       <c r="AD64" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -33202,7 +33202,7 @@
       <c r="AB65" s="22"/>
       <c r="AC65" s="22"/>
       <c r="AD65" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -33234,7 +33234,7 @@
         <v>57</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
@@ -33261,7 +33261,7 @@
         <v>981</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>292</v>
@@ -33362,7 +33362,7 @@
         <v>444</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>1185</v>
@@ -33384,7 +33384,7 @@
         <v>1443</v>
       </c>
       <c r="K69" s="42" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="L69" s="42" t="s">
         <v>723</v>
@@ -33396,7 +33396,7 @@
         <v>71</v>
       </c>
       <c r="O69" s="42" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="P69" s="33">
         <v>23.8</v>
@@ -33405,7 +33405,7 @@
         <v>67</v>
       </c>
       <c r="R69" s="42" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="S69" s="33">
         <v>27.4</v>
@@ -33414,7 +33414,7 @@
         <v>109</v>
       </c>
       <c r="U69" s="42" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="V69" s="33">
         <v>24</v>
@@ -33449,7 +33449,7 @@
         <v>984</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C70" s="42" t="s">
         <v>796</v>
@@ -33598,7 +33598,7 @@
         <v>987</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C73" s="43" t="s">
         <v>757</v>
@@ -33650,7 +33650,7 @@
         <v>743</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D74" s="43" t="s">
         <v>749</v>
@@ -33672,7 +33672,7 @@
         <v>178</v>
       </c>
       <c r="K74" s="43" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34"/>
@@ -33921,7 +33921,7 @@
         <v>56</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="K79" s="14" t="s">
         <v>1579</v>
@@ -33945,7 +33945,7 @@
       <c r="AB79" s="14"/>
       <c r="AC79" s="14"/>
       <c r="AD79" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -34046,7 +34046,7 @@
       <c r="AB81" s="14"/>
       <c r="AC81" s="14"/>
       <c r="AD81" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -34078,7 +34078,7 @@
         <v>59</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
@@ -34176,7 +34176,7 @@
         <v>56</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
@@ -34209,7 +34209,7 @@
         <v>260</v>
       </c>
       <c r="D85" s="36" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E85" s="52" t="s">
         <v>1462</v>
@@ -34255,7 +34255,7 @@
         <v>445</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D86" s="36" t="s">
         <v>1193</v>
@@ -34310,7 +34310,7 @@
         <v>261</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="F87" s="36" t="s">
         <v>1353</v>
@@ -34326,7 +34326,7 @@
         <v>144</v>
       </c>
       <c r="K87" s="36" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
@@ -34608,7 +34608,7 @@
         <v>1294</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>1075</v>
@@ -34695,7 +34695,7 @@
       <c r="AB94" s="24"/>
       <c r="AC94" s="24"/>
       <c r="AD94" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -34779,7 +34779,7 @@
         <v>194</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="L96" s="24" t="s">
         <v>725</v>
@@ -34938,7 +34938,7 @@
         <v>617</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C99" s="21" t="s">
         <v>1037</v>
@@ -35179,7 +35179,7 @@
       <c r="AB103" s="37"/>
       <c r="AC103" s="37"/>
       <c r="AD103" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -35209,7 +35209,7 @@
         <v>54</v>
       </c>
       <c r="J104" s="37" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="K104" s="37"/>
       <c r="L104" s="37"/>
@@ -35261,10 +35261,10 @@
         <v>1621</v>
       </c>
       <c r="K105" s="37" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="L105" s="37" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="M105" s="37">
         <v>27.2</v>
@@ -35273,7 +35273,7 @@
         <v>104</v>
       </c>
       <c r="O105" s="37" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="P105" s="37">
         <v>22.6</v>
@@ -35282,7 +35282,7 @@
         <v>109</v>
       </c>
       <c r="R105" s="37" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="S105" s="37">
         <v>18.600000000000001</v>
@@ -35291,7 +35291,7 @@
         <v>57</v>
       </c>
       <c r="U105" s="37" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="V105" s="37">
         <v>16.8</v>
@@ -35300,7 +35300,7 @@
         <v>60</v>
       </c>
       <c r="X105" s="37" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="Y105" s="37">
         <v>22.8</v>
@@ -35318,7 +35318,7 @@
         <v>66</v>
       </c>
       <c r="AD105" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -35332,7 +35332,7 @@
         <v>833</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="E106" s="37" t="s">
         <v>1513</v>
@@ -35375,7 +35375,7 @@
         <v>1015</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C107" s="37" t="s">
         <v>926</v>
@@ -35424,7 +35424,7 @@
         <v>1016</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>1524</v>
@@ -35481,7 +35481,7 @@
         <v>394</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="E109" s="41" t="s">
         <v>1535</v>
@@ -35551,7 +35551,7 @@
         <v>178</v>
       </c>
       <c r="K110" s="41" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="L110" s="41" t="s">
         <v>1573</v>
@@ -35563,7 +35563,7 @@
         <v>53</v>
       </c>
       <c r="O110" s="41" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="P110" s="38">
         <v>20.8</v>
@@ -35572,7 +35572,7 @@
         <v>88</v>
       </c>
       <c r="R110" s="41" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="S110" s="38">
         <v>16.399999999999999</v>
@@ -35581,7 +35581,7 @@
         <v>50</v>
       </c>
       <c r="U110" s="41" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="V110" s="38">
         <v>18.600000000000001</v>
@@ -35608,7 +35608,7 @@
         <v>123</v>
       </c>
       <c r="AD110" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="111" spans="1:30">
@@ -35714,7 +35714,7 @@
         <v>1021</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C113" s="41" t="s">
         <v>360</v>
@@ -35807,18 +35807,18 @@
       <c r="AB114" s="38"/>
       <c r="AC114" s="38"/>
       <c r="AD114" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="29" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>1363</v>
@@ -35861,7 +35861,7 @@
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="29" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B116" s="29" t="s">
         <v>517</v>
@@ -35876,7 +35876,7 @@
         <v>1543</v>
       </c>
       <c r="F116" s="29" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="G116" s="29"/>
       <c r="H116" s="29" t="s">
@@ -35889,10 +35889,10 @@
         <v>555</v>
       </c>
       <c r="K116" s="29" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="L116" s="29" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="M116" s="29">
         <v>21.4</v>
@@ -35901,7 +35901,7 @@
         <v>103</v>
       </c>
       <c r="O116" s="29" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="P116" s="29">
         <v>16.2</v>
@@ -35910,7 +35910,7 @@
         <v>69</v>
       </c>
       <c r="R116" s="29" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="S116" s="29">
         <v>27</v>
@@ -35919,7 +35919,7 @@
         <v>147</v>
       </c>
       <c r="U116" s="29" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="V116" s="29">
         <v>17.2</v>
@@ -35951,7 +35951,7 @@
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="29" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>444</v>
@@ -35963,7 +35963,7 @@
         <v>1118</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="F117" s="29" t="s">
         <v>1426</v>
@@ -36000,7 +36000,7 @@
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="29" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>743</v>
@@ -36049,7 +36049,7 @@
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="29" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B119" s="29" t="s">
         <v>445</v>
@@ -36064,7 +36064,7 @@
         <v>1544</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="G119" s="29"/>
       <c r="H119" s="29" t="s">
@@ -36098,7 +36098,7 @@
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="29" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B120" s="29" t="s">
         <v>1519</v>
@@ -36116,7 +36116,7 @@
         <v>1336</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="H120" s="29" t="s">
         <v>57</v>
@@ -36149,13 +36149,13 @@
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="40" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B121" s="39" t="s">
         <v>445</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D121" s="40" t="s">
         <v>1355</v>
@@ -36198,7 +36198,7 @@
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="40" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B122" s="39" t="s">
         <v>443</v>
@@ -36247,7 +36247,7 @@
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="40" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B123" s="40" t="s">
         <v>447</v>
@@ -36275,10 +36275,10 @@
         <v>1617</v>
       </c>
       <c r="K123" s="40" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="L123" s="40" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="M123" s="39">
         <v>30</v>
@@ -36287,7 +36287,7 @@
         <v>97</v>
       </c>
       <c r="O123" s="40" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="P123" s="39">
         <v>22.6</v>
@@ -36314,7 +36314,7 @@
         <v>65</v>
       </c>
       <c r="X123" s="40" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="Y123" s="39">
         <v>31.6</v>
@@ -36323,7 +36323,7 @@
         <v>118</v>
       </c>
       <c r="AA123" s="40" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="AB123" s="39">
         <v>18.600000000000001</v>
@@ -36337,7 +36337,7 @@
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="40" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B124" s="40" t="s">
         <v>1435</v>
@@ -36386,13 +36386,13 @@
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="40" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B125" s="39" t="s">
         <v>442</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D125" s="40" t="s">
         <v>262</v>
@@ -36413,7 +36413,7 @@
         <v>54</v>
       </c>
       <c r="J125" s="40" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="K125" s="39"/>
       <c r="L125" s="39"/>
@@ -36437,7 +36437,7 @@
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="40" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B126" s="40" t="s">
         <v>734</v>
@@ -36514,10 +36514,10 @@
         <v>143</v>
       </c>
       <c r="K127" s="16" t="s">
+        <v>2423</v>
+      </c>
+      <c r="L127" s="16" t="s">
         <v>2424</v>
-      </c>
-      <c r="L127" s="16" t="s">
-        <v>2425</v>
       </c>
       <c r="M127" s="16">
         <v>25.6</v>
@@ -36526,7 +36526,7 @@
         <v>88</v>
       </c>
       <c r="O127" s="16" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="P127" s="16">
         <v>25.4</v>
@@ -36535,7 +36535,7 @@
         <v>107</v>
       </c>
       <c r="R127" s="16" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="S127" s="16">
         <v>21.8</v>
@@ -36553,7 +36553,7 @@
         <v>77</v>
       </c>
       <c r="X127" s="16" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="Y127" s="16">
         <v>21.2</v>
@@ -36562,7 +36562,7 @@
         <v>79</v>
       </c>
       <c r="AA127" s="16" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AB127" s="16">
         <v>20.8</v>
@@ -36585,7 +36585,7 @@
         <v>482</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>800</v>
@@ -36650,7 +36650,7 @@
         <v>141</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="L129" s="16" t="s">
         <v>1595</v>
@@ -36662,7 +36662,7 @@
         <v>97</v>
       </c>
       <c r="O129" s="16" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="P129" s="16">
         <v>23.2</v>
@@ -36671,7 +36671,7 @@
         <v>76</v>
       </c>
       <c r="R129" s="16" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="S129" s="16">
         <v>21.6</v>
@@ -36689,7 +36689,7 @@
         <v>65</v>
       </c>
       <c r="X129" s="16" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="Y129" s="16">
         <v>19</v>
@@ -36739,7 +36739,7 @@
         <v>60</v>
       </c>
       <c r="J130" s="16" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K130" s="16"/>
       <c r="L130" s="16"/>
@@ -36837,7 +36837,7 @@
         <v>643</v>
       </c>
       <c r="J132" s="16" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="K132" s="16"/>
       <c r="L132" s="16"/>
@@ -37068,7 +37068,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -37141,7 +37141,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -37286,7 +37286,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -37359,7 +37359,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -39256,7 +39256,7 @@
         <v>308</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>1780</v>
@@ -39394,7 +39394,7 @@
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="7" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>1756</v>
@@ -39428,7 +39428,7 @@
         <v>1780</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="X42" s="2" t="s">
         <v>771</v>
@@ -41510,7 +41510,7 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" s="7" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1757</v>
@@ -41866,7 +41866,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="E3" t="s">
         <v>127</v>
@@ -42465,7 +42465,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B28" t="s">
         <v>121</v>
@@ -42474,13 +42474,13 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="F28" t="s">
         <v>324</v>
       </c>
       <c r="G28" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="H28" t="s">
         <v>295</v>
@@ -42644,7 +42644,7 @@
         <v>1928</v>
       </c>
       <c r="B17" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -42806,7 +42806,7 @@
         <v>1083</v>
       </c>
       <c r="Q3" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -42838,7 +42838,7 @@
         <v>191</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="K4" s="2">
         <v>5</v>
@@ -42882,7 +42882,7 @@
         <v>191</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="K5" s="2">
         <v>5</v>
@@ -42926,7 +42926,7 @@
         <v>191</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="K6" s="2">
         <v>5</v>
@@ -43136,7 +43136,7 @@
         <v>424</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="O10" s="2">
         <v>1.75</v>
@@ -43145,7 +43145,7 @@
         <v>1609</v>
       </c>
       <c r="Q10" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -43233,7 +43233,7 @@
         <v>424</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="O12" s="2">
         <v>1.75</v>
@@ -43434,7 +43434,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B17" s="59"/>
       <c r="C17" s="57"/>
@@ -43662,7 +43662,7 @@
         <v>426</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="O21" s="2">
         <v>2.5</v>
@@ -43709,7 +43709,7 @@
         <v>425</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="O22" s="2">
         <v>2</v>
@@ -44091,7 +44091,7 @@
         <v>425</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="O30" s="2">
         <v>1.8</v>
@@ -44138,7 +44138,7 @@
         <v>425</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="O31" s="2">
         <v>1.8</v>
@@ -44232,7 +44232,7 @@
         <v>425</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="O33" s="2">
         <v>1.8</v>
@@ -45484,7 +45484,7 @@
       </c>
       <c r="M5" s="2"/>
       <c r="P5" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -45561,7 +45561,7 @@
       </c>
       <c r="M7" s="2"/>
       <c r="P7" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="8" spans="1:16">
